--- a/_appData/surat_masuk.xlsx
+++ b/_appData/surat_masuk.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Register</t>
   </si>
@@ -53,34 +53,31 @@
     <t>001</t>
   </si>
   <si>
-    <t>jljlljlkjlk</t>
-  </si>
-  <si>
-    <t>2020-5-13</t>
-  </si>
-  <si>
-    <t>Dinas A</t>
-  </si>
-  <si>
-    <t>perihal xxxx</t>
-  </si>
-  <si>
-    <t>jslgjsldkjsldkgj</t>
+    <t>nomor 1</t>
+  </si>
+  <si>
+    <t>2020-10-2</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>perihal ini</t>
+  </si>
+  <si>
+    <t>penting</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>jimi</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Jenny K. Sigarlaki, SP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -222,48 +219,10 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
